--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2809.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2809.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.170246664278919</v>
+        <v>0.901638925075531</v>
       </c>
       <c r="B1">
-        <v>2.440401543780677</v>
+        <v>1.700130701065063</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.296100616455078</v>
       </c>
       <c r="D1">
-        <v>2.365256110639621</v>
+        <v>3.101418256759644</v>
       </c>
       <c r="E1">
-        <v>1.231592333389433</v>
+        <v>0.4803517460823059</v>
       </c>
     </row>
   </sheetData>
